--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4984,6 +4984,4706 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>000_Car</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>162_Car</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>162_Car</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>107_Car</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>168_Car</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12113_Car</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>156_Car</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>102_Car</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>103_Car</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0000_Car</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0000_Car</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1707661740_1_Car</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1707661742_1_Car</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>125_Car</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>125_Car</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1002_Car</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1520_Car</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>144_Car</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>05_Car</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05_Car</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>030_Car</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>030_Car</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>050_Car</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>050_Car</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>012_Car</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>012_Car</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>015_Car</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>015_Car</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>016_Car</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>016_Car</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>023_Car</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>023_Car</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>022_Car</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>022_Car</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0178_Car</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0178_Car</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>00020_Car</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>00020_Car</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>14231_Car</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>14231_Car</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0315_Car</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0317_Car</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0317121_Car</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>03157_Car</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>03157_Car</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>0231_Car</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>0214_Car</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>0120_Car</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>222_Car</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>222_Car</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>27_Car</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>27_Car</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>30_Car</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>30_Car</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>31_Car</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>31_Car</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>36_Car</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>36_Car</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>56_Car</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>56_Car</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>000000_Car</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>63_Car</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>67_Car</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>51_Car</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>9_Car</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>9_Car</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9684,6 +9684,406 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1234_Car</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D335"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10084,6 +10084,166 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Aswan</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4984,6 +4984,4686 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>000_Car</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>162_Car</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>162_Car</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>107_Car</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>168_Car</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12113_Car</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>156_Car</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>102_Car</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>103_Car</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>123456_Car</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1010_Car</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0000_Car</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0000_Car</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>111123_Car</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1707661740_1_Car</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1707661742_1_Car</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>505_Car</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>306_Car</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1213_Car</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>010_Car</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>125_Car</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>125_Car</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>120_Car</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>02120_Car</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>1020_Car</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>1002_Car</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>1520_Car</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>144_Car</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>21_Car</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>05_Car</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05_Car</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>250_Car</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>030_Car</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>030_Car</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>050_Car</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>050_Car</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>012_Car</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>012_Car</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>015_Car</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>015_Car</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>016_Car</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>016_Car</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>023_Car</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>023_Car</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>022_Car</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>022_Car</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>0178_Car</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>0178_Car</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>00020_Car</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>00020_Car</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>14231_Car</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>14231_Car</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>0315_Car</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>0317_Car</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>0317121_Car</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>03157_Car</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>03157_Car</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>0231_Car</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>0214_Car</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>0120_Car</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>222_Car</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>222_Car</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>27_Car</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>27_Car</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>30_Car</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>30_Car</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>31_Car</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>31_Car</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>36_Car</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>36_Car</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>56_Car</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>56_Car</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>000000_Car</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>63_Car</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>67_Car</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>51_Car</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>9_Car</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>9_Car</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9647,21 +9647,1621 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>333_Car</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1212_Car</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>121312_Car</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1212_Car</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Aswan</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
           <t>1_Car</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Cairo</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Giza</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>6.9</v>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>90_Car</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Suez</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>185.9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>4_Taxi</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>90_Car</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>4_Car</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>10101_Car</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>313_Car</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>221_Car</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>12333_Car</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>12333_Car</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>616_Car</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>616_Car</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Aswan</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>09_Car</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>09_Car</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>09_Car</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>09_Car</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>099_Car</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>099_Car</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>777_Car</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>777_Car</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>777_Car</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>777_Car</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>221_Taxi</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>221_Taxi</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1231_Taxi</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1231_Taxi</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Faiyum</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Faiyum</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>33_Car</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>33_Car</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>312_Car</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>312_Car</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>312_Car</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>61_Car</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>61_Car</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Qena</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>61_Car</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Luxor</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Aswan</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11264,6 +11264,1922 @@
         <v>194</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>30_Car</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "30_Car"</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Cairo"</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Giza"</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.9}</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"30_Car\""</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"Cairo\""</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"Giza\""</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " 6.9}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"30_Car\\\"\""</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"Cairo\\\"\""</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"Giza\\\"\""</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" 6.9}\"}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\"30_Car\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\"Cairo\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\"Giza\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" 6.9}\\\"}\"}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\" \\\\\\\\\\\\\\\"30_Car\\\\\\\\\\\\\\\"\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\" \\\\\\\\\\\\\\\"Cairo\\\\\\\\\\\\\\\"\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\" \\\\\\\\\\\\\\\"Giza\\\\\\\\\\\\\\\"\\\\\\\"\\\"\""</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\" \\\\\\\" 6.9}\\\\\\\"}\\\"}\"}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>01_Car</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>6_Car</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>8_Car</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "8_Car"</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Cairo"</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "Giza"</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.9}</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"8_Car\""</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"Cairo\""</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \"Giza\""</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " 6.9}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"8_Car\\\"\""</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"Cairo\\\"\""</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" \\\"Giza\\\"\""</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> " \" 6.9}\"}"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>111_Car</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>15_Car</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>1111_Car</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>112_Car</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>112_Car</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>10_Car</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>10_Car</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>030_Car</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>211_Car</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>211_Car</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>020_Car</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>02_Car</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1111_Car</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>11_Taxi</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>11_Taxi</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>123_Taxi</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>123_Taxi</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>07_Car</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>1_Taxi</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>028_Car</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>0258_Car</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>078_Car</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>111_Car</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>111!_Car</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>1111_Car</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>000005_Car</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>1_Taxi</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>1_Taxi</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>302_Car</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>36_Car</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>06_Car</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>4_Car</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>12_Car</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>111_Car</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>52_Car</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>13_Car</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>7_Car</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>44_Car</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>55_Car</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>66_Car</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>52_Car</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>52_Car</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>202_Car</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>404_Car</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>1237_Car</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>1237_Car</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>035_Car</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>007_Car</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>006_Car</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>006_Car</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>067_Car</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>067_Car</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D489"/>
+  <dimension ref="A1:D562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13180,6 +13180,1466 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>009_Car</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>009_Car</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>0009_Car</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>0009_Car</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>1234_Car</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>12342_Car</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>123422_Car</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>1234222_Car</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>111_Car</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>100_Car</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>1000_Car</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>200_Car</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>300_Car</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>101_Car</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>1011_Car</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>1011_Car</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>1011_Car</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>1011_Car</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>11_Car</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>257_Car</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>257_Car</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2517_Car</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2517_Car</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>23_Car</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>0_Car</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>1_Car</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2_Car</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>3_Car</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>4_Car</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>4_Car</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>5_Car</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>123_Car</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>50_Car</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>00_Car</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>100_Car-CA</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>100_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>1_Car-CA</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>1_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2_Car-CA</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>22_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>22_Car-MNF</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>40_Car-CA</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>400_Car-CA</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D562"/>
+  <dimension ref="A1:D570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14640,6 +14640,166 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>18_Car-CA</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>18_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>180_Car-CA</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>180_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>181_Car-CA</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>181_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>123456_Car-CA</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>123456_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D570"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14800,6 +14800,126 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>025_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>025_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>027_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>027_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>028_Car-CA</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>028_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14920,6 +14920,3166 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>1025_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>1025_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>1025_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>1025_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>10215_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>10215_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>10215_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>102115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>102115_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>102115_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>1021115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>1021115_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>1021115_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>10211115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>102111115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>102111115_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>102111115_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>1021111115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>1021111115_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>1021111115_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>1021111115_Bus-MNF</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>1021111115_Bus-GHR</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Gharbia</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Kafr El Sheikh</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>10211111115_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>10211111115_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>10211111115_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>1_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>1_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>121122_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>121122_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>1105_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>1105_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>11051_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>11051_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>110151_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>110151_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>1110151_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>1110151_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>11101151_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>11101151_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>111011151_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>111011151_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>102_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>102_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>1012_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>1012115111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>1012115111_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>101211511111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>101211511111_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>9098_Car-CA</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>9098_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>90981_Car-CA</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>90981_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>901981111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>901981111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>9019811111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>9019811111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>901981111111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>901981111111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>90198111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>90198111121111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>901198111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>901198111121111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>9011918111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>90119181111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>90119181111121111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>901191811111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>901191811111121111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>901191811111121111_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>9201191811111121111_Car-CA</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>9201191811111121111_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>0452_Car-CA</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>0452_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>04521_Car-CA</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>04521_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>041521_Car-CA</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>041521_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>0415121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>0415121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>04115121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>04115121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>041115121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>041115121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>0411115121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>0411115121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>04111151211_Car-CA</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>04111151211_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>041111511211_Car-CA</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>041111511211_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>041111511211_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>0411115111211_Car-CA</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>0411115111211_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>0411115111211_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>0210_Car-CA</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>0210_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>021110_Car-CA</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>021110_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>0211110_Car-CA</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>0211110_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>02111101_Car-CA</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>02111101_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>021111011_Car-CA</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>021111011_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>0211111011_Car-CA</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>0211111011_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>1089_Car-CA</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>1089_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>10890_Car-CA</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>10890_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>108901_Car-CA</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>108901_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>1089011_Car-CA</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>1089011_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>10890112_Car-CA</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>10890112_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>1089011112_Car-PTS</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Port Said</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>443.8</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>1089011112_Car-MIN</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Minya</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Assiut</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>186.8</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>10890111112_Car-CA</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>10890111112_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>108910111112_Car-CA</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>108910111112_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>1089101111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>1089101111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>10891011111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>108910111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>108910111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>1089101111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>1089101111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>108910111111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>108910111111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>1089101111111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>1089101111111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>10891011111111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>10891011111111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>1091011111111111121_Car-CA</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>1091011111111111121_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>12121_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>12121_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>121211_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>121211_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>1211211_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>1211211_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>121111211_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>121111211_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>1211112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>12111112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>1211111112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>1211111112111_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>12111111112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>12111111112111_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>121111111112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>121111111112111_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>1211111111112111_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>0_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>123_Car-CA</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>123_Car-CA</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>123_Car-CA</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>90_Car-CA</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>90_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D734"/>
+  <dimension ref="A1:D794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18080,6 +18080,1206 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>3_Car-CA</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>6252_Car-CA</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>6252_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>1_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>1_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>4_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>4_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>1423_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>1423_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>1110_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>1110_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>1110_Taxi-QAL</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>1110_Taxi-MNF</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>3_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>3_Car-MNF</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>40_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>40_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>12_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>12_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-QAL</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>9812_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>12_Motorcycle-QAL</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>12_Motorcycle-MNF</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>140_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>140_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>902_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>902_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>1010_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>1010_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>402_Car-CA</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>402_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>652_Car-CA</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>652_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>1010_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>1010_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>1010_Taxi-QAL</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>1010_Taxi-MNF</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>31_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>31_Car-MNF</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>31_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>31_Car-MNF</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>41_Taxi-QAL</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>41_Taxi-MNF</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>41_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>41_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-QAL</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-MNF</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>31_Car-CA</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>31_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>40_Taxi-CA</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>40_Taxi-GIZ</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>140_Bus-QAL</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>140_Bus-MNF</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>Sharqia</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>1_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>1_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1980" yWindow="1335" windowWidth="9570" windowHeight="11355" tabRatio="897" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="897" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all_governments" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="governorates" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="vehicles" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="travels" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_governments" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="governorates" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vehicles" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="travels" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,14 +21,14 @@
   <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
@@ -36,14 +36,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -891,21 +891,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="15" topLeftCell="T16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2780,7 +2780,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2797,11 +2797,11 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="12.625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8.875" customWidth="1" style="1" min="2" max="15"/>
-    <col width="8.875" customWidth="1" style="1" min="16" max="16384"/>
+    <col width="12.6640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="8.88671875" customWidth="1" style="1" min="2" max="17"/>
+    <col width="8.88671875" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3239,16 +3239,16 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="17.625" customWidth="1" style="2" min="2" max="2"/>
-    <col width="8.875" customWidth="1" style="2" min="3" max="16"/>
-    <col width="8.875" customWidth="1" style="2" min="17" max="16384"/>
+    <col width="13.88671875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="17.6640625" customWidth="1" style="2" min="2" max="2"/>
+    <col width="8.88671875" customWidth="1" style="2" min="3" max="18"/>
+    <col width="8.88671875" customWidth="1" style="2" min="19" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3306,7 +3306,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Microbus</t>
+          <t>MicroBus</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -3316,7 +3316,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Minibus</t>
+          <t>MiniBus</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D794"/>
+  <dimension ref="A1:D796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19280,6 +19280,46 @@
         <v>31.8</v>
       </c>
     </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>652_Car-CA</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>5555_Car-CA</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D796"/>
+  <dimension ref="A1:D809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19320,6 +19320,266 @@
         <v>6.9</v>
       </c>
     </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>30_Car-CA</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>30_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>31_Car-CA</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>31_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>31_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>31_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>30_Car-QAL</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>31_Car-CA</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>31_Car-GIZ</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-QAL</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-QAL</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Monufia</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/New data.xlsx
+++ b/Data/New data.xlsx
@@ -3374,7 +3374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D809"/>
+  <dimension ref="A1:D829"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19580,6 +19580,406 @@
         <v>84.90000000000001</v>
       </c>
     </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>1423_Bus-CA</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>1423_Bus-GIZ</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-CA</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Cairo</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>1231_Motorcycle-GIZ</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Giza</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>Qalyubia</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>31.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
